--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -900,7 +900,7 @@
     <t>レポート対象のモダリティを示すコード。放射線を表す第1コードのLP29684-5に続くサブカテゴリコードとして第2コード以下に保持される。複数のモダリティの組み合わせを許容するため、コードの列挙を許容する。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_RadiologyModality_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DICOMModality_VS</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology_sub.id</t>

--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -1306,18 +1306,18 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Radiology_Findings|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Radiology_impression|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common)
 </t>
   </si>
   <si>
     <t>診断レポートの一部となるObservationリソース【詳細参照】</t>
   </si>
   <si>
-    <t>【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
+    <t>【JP Core仕様】所見(findings)や診断の結果(impression)を示すObservationリソースへの参照。この他、計測情報などの付随所見をObservationリソースとして定義できる。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。  
-【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
+【JP Core仕様】所見(findings)や診断の結果(impression)を示すObservationリソース以外では、計測情報などの付随所見をObservationリソースとして定義できるが、ユースケースに依存するためJP Coreでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>結果のグループ化が任意だが、意味のある個別の結果または結果のグループをサポートする必要がある。</t>
@@ -1848,7 +1848,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="221.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
